--- a/data/trans_camb/P24_4_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P24_4_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,73</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,83</t>
+          <t>-6,1; 5,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,27</t>
+          <t>-4,99; 6,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 11,7</t>
+          <t>-2,0; 10,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 11,06</t>
+          <t>-0,73; 14,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 5,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 6,03</t>
+          <t>-9,77; 4,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,95</t>
+          <t>-7,45; 6,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,11</t>
+          <t>-4,72; 9,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,48</t>
+          <t>5,98; 24,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 6,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 3,33</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 5,3</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 7,84</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 17,81</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>121,29%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>234,05%</t>
+          <t>116,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>266,0%</t>
+          <t>167,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>-22,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38,22%</t>
+          <t>153,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>50,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-13,58%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>53,03%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>168,45%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-60,16; 549,3</t>
+          <t>-84,74; 940,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 508,26</t>
+          <t>-67,99; 622,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 903,26</t>
+          <t>-40,18; 855,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,84; 842,07</t>
+          <t>-34,96; 1207,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 62,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 92,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 79,55</t>
+          <t>-71,68; 81,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 139,98</t>
+          <t>-50,27; 105,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 74,32</t>
+          <t>-34,04; 163,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 100,81</t>
+          <t>30,59; 422,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 118,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,53; 179,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-62,4; 80,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-35,93; 125,05</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; 192,9</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>47,53; 374,0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,63</t>
+          <t>-1,26; 3,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,88</t>
+          <t>-0,4; 3,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,43</t>
+          <t>-1,02; 3,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,26</t>
+          <t>1,19; 7,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,56</t>
+          <t>1,42; 9,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,1</t>
+          <t>1,97; 8,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,67</t>
+          <t>2,48; 9,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,72</t>
+          <t>6,72; 14,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 5,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 5,79</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 5,47</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 10,13</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>106,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>74,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>168,22%</t>
+          <t>236,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>113,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>138,4%</t>
+          <t>134,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>135,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>266,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>137,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>99,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>122,96%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>108,9%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>252,26%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 104,02</t>
+          <t>-50,85; 576,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 194,38</t>
+          <t>-23,78; 554,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 160,34</t>
+          <t>-43,09; 522,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,01; 448,44</t>
+          <t>25,65; 1139,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 100,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 128,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 134,1</t>
+          <t>15,9; 334,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,65; 245,94</t>
+          <t>22,42; 342,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 77,32</t>
+          <t>28,09; 345,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 108,52</t>
+          <t>110,05; 532,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 104,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,67; 236,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 261,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35,72; 273,93</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>28,58; 261,42</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>119,89; 483,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>1,15</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,26</t>
+          <t>-0,66; 7,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,92</t>
+          <t>-1,03; 6,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,83</t>
+          <t>-2,26; 2,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,53</t>
+          <t>1,76; 13,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,86</t>
+          <t>-3,58; 2,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 7,23</t>
+          <t>-2,94; 3,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,5</t>
+          <t>-0,58; 5,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,33</t>
+          <t>1,54; 9,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 3,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 3,71</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 3,35</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 9,27</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>135,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>118,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>384,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>109,57%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>82,97%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>177,75%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>49,57%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>64,63%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>238,56%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 483,78</t>
+          <t>-60,25; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 360,78</t>
+          <t>-65,35; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 198,57</t>
+          <t>-73,45; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,22; 350,59</t>
+          <t>2,29; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,9; 98,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 118,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 213,44</t>
+          <t>-70,92; 159,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,84; 287,15</t>
+          <t>-53,36; 227,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 125,22</t>
+          <t>-17,83; 371,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 120,17</t>
+          <t>13,12; 549,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 152,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 210,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-48,37; 265,43</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-24,89; 275,22</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 267,95</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>62,87; 592,77</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
           <t>2,15</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>5,34</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,85</t>
+          <t>-2,35; 0,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,86</t>
+          <t>-1,07; 3,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,08</t>
+          <t>-0,75; 3,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,56</t>
+          <t>-2,34; 3,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,72</t>
+          <t>0,49; 8,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,91</t>
+          <t>2,48; 10,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 2,08</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 4,65</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 5,71</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>-37,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>177,68%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>109,44%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>125,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>44,43%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>69,33%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 104,64</t>
+          <t>-75,47; 49,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,74; 168,46</t>
+          <t>-39,65; 185,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 189,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,59; 341,52</t>
+          <t>-28,71; 220,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 44,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,05; 75,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,35; 83,26</t>
+          <t>-28,81; 60,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>65,38; 176,64</t>
+          <t>6,06; 134,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 46,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13,59; 78,78</t>
+          <t>27,74; 152,74</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20,31; 82,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>78,3; 175,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-27,25; 48,8</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 104,34</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 131,69</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8,45</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 2,0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,92</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 3,02</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 6,09</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 2,9</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 3,99</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 4,86</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 10,98</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,81</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 3,1</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 3,44</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 7,93</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>68,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>70,34%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>169,14%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>45,79%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>135,26%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>44,36%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>51,87%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>144,24%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-35,01; 120,69</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 172,72</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 177,61</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>71,07; 332,71</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,04; 50,38</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 74,18</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>13,89; 91,49</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>86,24; 199,55</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 47,61</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 79,12</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>22,35; 90,73</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>96,49; 204,08</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
